--- a/biology/Zoologie/Columba_(oiseau)/Columba_(oiseau).xlsx
+++ b/biology/Zoologie/Columba_(oiseau)/Columba_(oiseau).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pigeons
 Les pigeons (genre Columba) sont des oiseaux de la famille des Columbidae, vivant à l'origine dans les milieux terrestres mais s'étant répandus, pour certaines espèces, en plaine et dans les villes, et se nourrissant principalement de graines, mais avec un régime très élargi autour des lieux où les déchets alimentaires leur sont disponibles, ce qui leur vaut parfois le surnom d'« éboueurs urbains ».
@@ -514,7 +526,9 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>D'après la classification de référence (version 3.1, 2012) du Congrès ornithologique international (ordre phylogénique) :
 Columba livia – Pigeon biset
@@ -614,7 +628,9 @@
           <t>Comportement sexuel du pigeon</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Chez le pigeon, les étapes du comportement sexuel de l'attraction jusqu'à l'accouplement et aux fonctions parentales sont sous un contrôle direct des hormones, la testostérone pour le mâle et la progestérone pour la femelle.  Il s'agit d'une interaction réciproque. Des stimuli déclencheurs chez le partenaire stimulent des hormones contrôlant des comportements qui à leur tour servent de déclencheurs pour le partenaire et ainsi de suite.
 Chez le pigeon mâle, la présence d'une femelle favorise la sécrétion de testostérone qui déclenche des comportements proceptifs, tels que la parade nuptiale.  Le mâle tourne sur lui-même en gonflant ses plumes et en balayant le sol avec sa queue ouverte.  Ce comportement d'approche provoque à son tour une sécrétion d’œstrogène chez la femelle.  Elle stimule alors le comportement proceptif caractéristique à son sexe qui sert à communiquer au mâle son état de réceptivité s'il y a lieu, ce qui augmente alors la sécrétion de testostérone du mâle, qui stimule à son tour le comportement proceptif de la femelle.
@@ -647,7 +663,9 @@
           <t>Nuisances urbaines</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Les pigeons font souvent partie de la faune urbaine. En ville, de nombreux habitants se plaignent des pigeons ou d'une surpopulation de pigeons. Le grief le plus courant est la dégradation des maisons ou des immeubles par les déjections, celles-ci étant particulièrement acides. Pour lutter contre ces volatiles, plusieurs méthodes sont employées, parmi lesquelles les pigeonniers contraceptifs ou la capture et la stérilisation.
 </t>
@@ -678,7 +696,9 @@
           <t>Recherche</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>2007. À l'Université de Francfort (Allemagne), l'équipe de Gerta Fleissner a mis en évidence une structure nerveuse complexe dans la peau de la partie supérieure du bec du pigeon[réf. nécessaire].
 Cette structure contenant des particules de magnétite et de maghémite (deux oxydes de fer) serait sensible au champ magnétique terrestre, servant ainsi de magnétomètre au pigeon lors de son vol.
@@ -712,8 +732,13 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Calendrier républicain
-Dans le calendrier républicain, le Pigeon était le nom attribué au 25e jour du mois de germinal[1], généralement chaque 14 avril du calendrier grégorien.</t>
+          <t>Calendrier républicain</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Dans le calendrier républicain, le Pigeon était le nom attribué au 25e jour du mois de germinal, généralement chaque 14 avril du calendrier grégorien.</t>
         </is>
       </c>
     </row>
@@ -743,8 +768,13 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t xml:space="preserve">Littérature
-Le Pigeon, roman de Patrick Süskind publié en 1987, narre la journée infernale de Jonathan Noël, un Parisien solitaire vigile de profession, qui endure une crise existentielle lorsqu'il s'aperçoit qu'un pigeon, symbole de désordre dans l'existence soigneusement rangée du protagoniste, se tient devant la porte de sa chambre de bonne.
+          <t>Littérature</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Pigeon, roman de Patrick Süskind publié en 1987, narre la journée infernale de Jonathan Noël, un Parisien solitaire vigile de profession, qui endure une crise existentielle lorsqu'il s'aperçoit qu'un pigeon, symbole de désordre dans l'existence soigneusement rangée du protagoniste, se tient devant la porte de sa chambre de bonne.
 </t>
         </is>
       </c>
@@ -773,17 +803,19 @@
           <t>Sémantique</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">On parlait autrefois en France de coulomb, terme qui désignait indistinctement colombes et pigeons, et de pijon[2] ou  pigon (1488)[3] ; ainsi que de pigeons de mer (1835[4]).
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On parlait autrefois en France de coulomb, terme qui désignait indistinctement colombes et pigeons, et de pijon ou  pigon (1488) ; ainsi que de pigeons de mer (1835).
 Diverses locutions incluaient le mot « pigeon » :
 le cœur de pigeon était en 1690 une « sorte de cerise » Jean-Baptiste de La Quintinie, 1690, Instruction pour les jardins fruitiers et potagers.
-« aile de pigeon » pouvait signifier « poignée de plâtre gâché que l'ouvrier lève à la main ou à la truelle et qu'il dépose sans le plaquer ou le lancer »[5],[6].
+« aile de pigeon » pouvait signifier « poignée de plâtre gâché que l'ouvrier lève à la main ou à la truelle et qu'il dépose sans le plaquer ou le lancer »,.
 Le terme « pigeon » isolé pouvait aussi désigner :
-« chacune des demi-mailles par lesquelles on commence un filet de pêche » 1769[7];
-« morceau de pierre dans la chaux »[8] ;
-« petit morceau de bois ou de métal qu'on place dans l'onglet d'un cadre pour le renforcer » 1842 [9].
-Dans le nord de la France, on parle aussi de coulombs, de coulons, ou coulars[10]. Les éleveurs de pigeons voyageurs y sont appelés coulonneux.
+« chacune des demi-mailles par lesquelles on commence un filet de pêche » 1769;
+« morceau de pierre dans la chaux » ;
+« petit morceau de bois ou de métal qu'on place dans l'onglet d'un cadre pour le renforcer » 1842 .
+Dans le nord de la France, on parle aussi de coulombs, de coulons, ou coulars. Les éleveurs de pigeons voyageurs y sont appelés coulonneux.
 Dans les dictionnaires du XIXe siècle, « plumer le pigeon » signifie filouter, duper, tromper un homme simple et naturel.  Dans la seconde moitié du XIXe siècle, on utilise le mot  « pigeonnant » pour définir ce qui rappelle la forme d’une gorge de pigeon (étymologie reprise du Trésor de la langue française informatisé), ce qui conduira à parler soutiens-gorge à décolleté pigeonnant.
 De nos jours, un pigeon est un homme qu'on peut « plumer », en abusant de sa naïveté pour profiter de lui.  Dans le langage familier, c'est un homme facile à duper.   (Dictionnaire Français Larousse).
 </t>
